--- a/BigPicture/Assets/Resources/DataSheets/Recruit/ReCruitElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/Recruit/ReCruitElement.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,15 +297,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좋아\음.. 싫어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3,L1,Q1\O4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아\생각해보고</t>
+    <t>펄, 여긴 어쩐 일이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 돌아오고 싶었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차라리 돌아오지 않았으면 싶었는데… 내 모습 웃기지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름 전 부터 농작물이 전혀 자라지 않고, 산 속에 있던 몬스터들이 전부 내려와서 우릴 공격했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인을 밝혀내기 위해 우리가 숲으로 향했는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 곳에서 우리는 농작물들이 생명을 빼앗기는 것 처럼 형체를 빼앗겼어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마… 다시는 원래대로 돌아오지 못할 지도 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을? 마을은… 아마 모두들 떠날 준비를 하고 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 원인을 찾아보려 했지만 결국 이렇게 되어버렸어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람들은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 여길 떠날 준비를 하고 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 남겠다고 하는 사람도 있지만, 우린 그것을 이기지 못해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것이라니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 너무 무서워서 그것을 제대로 쳐다보지도 못했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어. 더 이상 말 하지 않아도 괜찮아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE,Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3,L1#O8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모습이 왜 이렇게 변했는지 물어본다.#아무 일 없는 척 마을에 무슨 일이 있는지 물어본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 없는 동안 많은 일이 있었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마… 다시는 원래대로 돌아오지 못할 지도 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 잃고 눈을 떠 보니 전부 나처럼…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반대편에 있는 EAST를 설득해줘. 그 이후로 계속 다시 가겠다고 사람들을 모으고 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아#생각해보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아#음.. 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3,L1,Q1#O4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,15 +879,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -825,6 +925,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -989,25 +1092,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:F7" tableType="xml" totalsRowShown="0" dataDxfId="0" connectionId="7">
-  <autoFilter ref="A1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:F28" tableType="xml" totalsRowShown="0" dataDxfId="6" connectionId="7">
+  <autoFilter ref="A1:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="TalkNumber" name="TalkNumber" dataDxfId="6">
+    <tableColumn id="1" uniqueName="TalkNumber" name="TalkNumber" dataDxfId="5">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/TalkNumber" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Order" name="Order" dataDxfId="5">
+    <tableColumn id="2" uniqueName="Order" name="Order" dataDxfId="4">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/Order" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Name" name="Name" dataDxfId="4">
+    <tableColumn id="3" uniqueName="Name" name="Name" dataDxfId="3">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Description" name="Description" dataDxfId="3">
+    <tableColumn id="4" uniqueName="Description" name="Description" dataDxfId="2">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Choice" name="Choice" dataDxfId="2">
+    <tableColumn id="5" uniqueName="Choice" name="Choice" dataDxfId="1">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/Choice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Result" name="Result" dataDxfId="1">
+    <tableColumn id="6" uniqueName="Result" name="Result" dataDxfId="0">
       <xmlColumnPr mapId="11" xpath="/data-set/Talk_Detail/Result" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1479,18 +1582,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
@@ -1573,7 +1676,7 @@
       </c>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>0</v>
       </c>
@@ -1587,10 +1690,10 @@
         <v>45</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -1660,7 +1763,7 @@
       </c>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="39">
         <v>1</v>
       </c>
@@ -1674,7 +1777,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>47</v>
@@ -1692,8 +1795,352 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="18"/>
       <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="47">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="47">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="47">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="47">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="47">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="47">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="47">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="47">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BigPicture/Assets/Resources/DataSheets/Recruit/ReCruitElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/Recruit/ReCruitElement.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,50 @@
   </si>
   <si>
     <t>방범대가 마을을 지키고 있지만 몬스터의 숫자가 늘어나면 이제 더 이상 방법이 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3,O1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1,O1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAST 여기 있었구나.\n널 찾고 있었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이야?\n난 사람들을 모으고 있어서 바쁘다구.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 마을을 되찾기 위해 싸울거야.\n너도 함께 하지 않을래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도중에 도망가지 않고 끝까지 싸운다면 너와 함께 갈게. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 약속할게!#음 그건…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O4#O5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 잘 지내보자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE,L5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실망이야 펄…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1308,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1379,18 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>99</v>
+      </c>
+      <c r="C4" s="21">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="20"/>
@@ -1408,7 +1460,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1621,9 @@
         <v>61</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="14"/>
@@ -1926,58 +1980,115 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="14">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="14">
+        <v>8</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="14">
+        <v>8</v>
+      </c>
+      <c r="B29" s="18">
+        <v>2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="14">
+        <v>8</v>
+      </c>
+      <c r="B30" s="18">
+        <v>3</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="14">
+        <v>8</v>
+      </c>
+      <c r="B31" s="18">
+        <v>4</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="14">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18">
+        <v>5</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
